--- a/outcome/appendix/forecast/Dysentery.xlsx
+++ b/outcome/appendix/forecast/Dysentery.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3279.88320515479</v>
+        <v>3278.56857879612</v>
       </c>
       <c r="C2" t="n">
-        <v>3095.4116807011</v>
+        <v>3094.12874245179</v>
       </c>
       <c r="D2" t="n">
-        <v>3002.79381957984</v>
+        <v>3001.5267879822</v>
       </c>
       <c r="E2" t="n">
-        <v>3477.67465371262</v>
+        <v>3476.32609630924</v>
       </c>
       <c r="F2" t="n">
-        <v>3588.15363407906</v>
+        <v>3586.78616665863</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>3309</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.1167948452098</v>
+        <v>-30.4314212038826</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3139.33340704654</v>
+        <v>3138.80447783385</v>
       </c>
       <c r="C3" t="n">
-        <v>2941.06575826028</v>
+        <v>2940.11439439071</v>
       </c>
       <c r="D3" t="n">
-        <v>2842.18745918882</v>
+        <v>2841.03796061813</v>
       </c>
       <c r="E3" t="n">
-        <v>3353.82040333348</v>
+        <v>3353.784680558</v>
       </c>
       <c r="F3" t="n">
-        <v>3474.45643295777</v>
+        <v>3474.71396422635</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1912</v>
       </c>
       <c r="I3" t="n">
-        <v>1227.33340704654</v>
+        <v>1226.80447783385</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3930.98875047487</v>
+        <v>3925.6475720918</v>
       </c>
       <c r="C4" t="n">
-        <v>3645.1980488227</v>
+        <v>3639.31378080902</v>
       </c>
       <c r="D4" t="n">
-        <v>3503.99770458862</v>
+        <v>3497.87632384046</v>
       </c>
       <c r="E4" t="n">
-        <v>4244.02877555694</v>
+        <v>4239.3748023643</v>
       </c>
       <c r="F4" t="n">
-        <v>4421.80649893044</v>
+        <v>4417.58369825758</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2892</v>
       </c>
       <c r="I4" t="n">
-        <v>1038.98875047487</v>
+        <v>1033.6475720918</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4723.64998216836</v>
+        <v>4724.40642789172</v>
       </c>
       <c r="C5" t="n">
-        <v>4338.1634463698</v>
+        <v>4337.17892802151</v>
       </c>
       <c r="D5" t="n">
-        <v>4149.37677416767</v>
+        <v>4147.60449083009</v>
       </c>
       <c r="E5" t="n">
-        <v>5150.88053819921</v>
+        <v>5153.76274655936</v>
       </c>
       <c r="F5" t="n">
-        <v>5395.7396591428</v>
+        <v>5399.92814829935</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>3695</v>
       </c>
       <c r="I5" t="n">
-        <v>1028.64998216836</v>
+        <v>1029.40642789172</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6720.93457719338</v>
+        <v>6727.14611812393</v>
       </c>
       <c r="C6" t="n">
-        <v>6093.39707365321</v>
+        <v>6095.86115744865</v>
       </c>
       <c r="D6" t="n">
-        <v>5789.66277352364</v>
+        <v>5790.4556124302</v>
       </c>
       <c r="E6" t="n">
-        <v>7427.45256613525</v>
+        <v>7438.32819529718</v>
       </c>
       <c r="F6" t="n">
-        <v>7837.38847308843</v>
+        <v>7851.17279336424</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5664</v>
       </c>
       <c r="I6" t="n">
-        <v>1056.93457719338</v>
+        <v>1063.14611812393</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>8323.99284403921</v>
+        <v>8325.65033663998</v>
       </c>
       <c r="C7" t="n">
-        <v>7465.64027156876</v>
+        <v>7462.55079491466</v>
       </c>
       <c r="D7" t="n">
-        <v>7054.26473396239</v>
+        <v>7049.12927271901</v>
       </c>
       <c r="E7" t="n">
-        <v>9303.23772430491</v>
+        <v>9311.04451703843</v>
       </c>
       <c r="F7" t="n">
-        <v>9877.33416539592</v>
+        <v>9889.08438478762</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>7775</v>
       </c>
       <c r="I7" t="n">
-        <v>548.992844039205</v>
+        <v>550.650336639979</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>9561.039976791</v>
+        <v>9575.48929451037</v>
       </c>
       <c r="C8" t="n">
-        <v>8495.0030091311</v>
+        <v>8501.53877528923</v>
       </c>
       <c r="D8" t="n">
-        <v>7988.44628377232</v>
+        <v>7991.56437515282</v>
       </c>
       <c r="E8" t="n">
-        <v>10791.2959097547</v>
+        <v>10816.0005507788</v>
       </c>
       <c r="F8" t="n">
-        <v>11519.1021605665</v>
+        <v>11550.3973322737</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>7270</v>
       </c>
       <c r="I8" t="n">
-        <v>2291.039976791</v>
+        <v>2305.48929451037</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>9517.79817779017</v>
+        <v>9515.30998976675</v>
       </c>
       <c r="C9" t="n">
-        <v>8406.37475508535</v>
+        <v>8397.6757827724</v>
       </c>
       <c r="D9" t="n">
-        <v>7881.11004990374</v>
+        <v>7869.84604633112</v>
       </c>
       <c r="E9" t="n">
-        <v>10809.8447261238</v>
+        <v>10815.807192603</v>
       </c>
       <c r="F9" t="n">
-        <v>11578.6176485282</v>
+        <v>11590.1863570793</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>7270</v>
       </c>
       <c r="I9" t="n">
-        <v>2247.79817779017</v>
+        <v>2245.30998976675</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>7866.02498181439</v>
+        <v>7873.64966794672</v>
       </c>
       <c r="C10" t="n">
-        <v>6940.33606117711</v>
+        <v>6941.20152402909</v>
       </c>
       <c r="D10" t="n">
-        <v>6503.26072463018</v>
+        <v>6501.2702863342</v>
       </c>
       <c r="E10" t="n">
-        <v>8943.51447180471</v>
+        <v>8960.12483309752</v>
       </c>
       <c r="F10" t="n">
-        <v>9585.26430809128</v>
+        <v>9607.75238663716</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6206</v>
       </c>
       <c r="I10" t="n">
-        <v>1660.02498181439</v>
+        <v>1667.64966794672</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6020.8629424694</v>
+        <v>6031.66202642148</v>
       </c>
       <c r="C11" t="n">
-        <v>5319.27871936454</v>
+        <v>5324.10356363092</v>
       </c>
       <c r="D11" t="n">
-        <v>4987.62150582991</v>
+        <v>4989.88811667938</v>
       </c>
       <c r="E11" t="n">
-        <v>6836.18434954519</v>
+        <v>6854.80950090518</v>
       </c>
       <c r="F11" t="n">
-        <v>7321.17228419277</v>
+        <v>7344.86751768744</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4793</v>
       </c>
       <c r="I11" t="n">
-        <v>1227.8629424694</v>
+        <v>1238.66202642148</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>4324.14210280319</v>
+        <v>4326.41387463671</v>
       </c>
       <c r="C12" t="n">
-        <v>3832.51178070847</v>
+        <v>3831.22424952722</v>
       </c>
       <c r="D12" t="n">
-        <v>3599.42655881028</v>
+        <v>3596.63134111182</v>
       </c>
       <c r="E12" t="n">
-        <v>4893.23234495232</v>
+        <v>4900.2168272782</v>
       </c>
       <c r="F12" t="n">
-        <v>5230.7057236903</v>
+        <v>5240.76206932353</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>3568</v>
       </c>
       <c r="I12" t="n">
-        <v>756.142102803185</v>
+        <v>758.413874636707</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3667.70781791233</v>
+        <v>3673.97021294279</v>
       </c>
       <c r="C13" t="n">
-        <v>3249.32400783888</v>
+        <v>3251.89178638188</v>
       </c>
       <c r="D13" t="n">
-        <v>3051.04255211285</v>
+        <v>3052.02156169212</v>
       </c>
       <c r="E13" t="n">
-        <v>4152.2647350258</v>
+        <v>4163.34121872564</v>
       </c>
       <c r="F13" t="n">
-        <v>4439.7279031439</v>
+        <v>4453.91078081676</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>3272</v>
       </c>
       <c r="I13" t="n">
-        <v>395.707817912332</v>
+        <v>401.970212942795</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>3027.28996204963</v>
+        <v>3030.24372779337</v>
       </c>
       <c r="C14" t="n">
-        <v>2683.31020712643</v>
+        <v>2683.46300762838</v>
       </c>
       <c r="D14" t="n">
-        <v>2520.2157009926</v>
+        <v>2519.17300932132</v>
       </c>
       <c r="E14" t="n">
-        <v>3425.42871567261</v>
+        <v>3432.06126628376</v>
       </c>
       <c r="F14" t="n">
-        <v>3661.5094977434</v>
+        <v>3670.52772922964</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>2633</v>
       </c>
       <c r="I14" t="n">
-        <v>394.289962049628</v>
+        <v>397.243727793369</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2899.54843414372</v>
+        <v>2903.00510483365</v>
       </c>
       <c r="C15" t="n">
-        <v>2562.95764918501</v>
+        <v>2563.54778158837</v>
       </c>
       <c r="D15" t="n">
-        <v>2403.76988801474</v>
+        <v>2403.13960214189</v>
       </c>
       <c r="E15" t="n">
-        <v>3290.46547053932</v>
+        <v>3297.70014269313</v>
       </c>
       <c r="F15" t="n">
-        <v>3522.88716305675</v>
+        <v>3532.57869134221</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2623</v>
       </c>
       <c r="I15" t="n">
-        <v>276.548434143716</v>
+        <v>280.005104833646</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3617.7711644163</v>
+        <v>3618.07771701068</v>
       </c>
       <c r="C16" t="n">
-        <v>3168.29426211473</v>
+        <v>3165.36623000201</v>
       </c>
       <c r="D16" t="n">
-        <v>2957.50640079002</v>
+        <v>2953.25092342904</v>
       </c>
       <c r="E16" t="n">
-        <v>4145.78007374076</v>
+        <v>4150.52905770993</v>
       </c>
       <c r="F16" t="n">
-        <v>4462.54522422471</v>
+        <v>4470.2644092754</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>3488</v>
       </c>
       <c r="I16" t="n">
-        <v>129.771164416301</v>
+        <v>130.077717010676</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4334.07685925888</v>
+        <v>4341.16806497634</v>
       </c>
       <c r="C17" t="n">
-        <v>3763.0885942813</v>
+        <v>3765.00922215466</v>
       </c>
       <c r="D17" t="n">
-        <v>3497.40697910519</v>
+        <v>3497.19020060318</v>
       </c>
       <c r="E17" t="n">
-        <v>5011.97566964662</v>
+        <v>5026.13546071474</v>
       </c>
       <c r="F17" t="n">
-        <v>5422.08415517821</v>
+        <v>5440.96633136247</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>3945</v>
       </c>
       <c r="I17" t="n">
-        <v>389.076859258879</v>
+        <v>396.168064976338</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6128.83500863166</v>
+        <v>6144.13562083452</v>
       </c>
       <c r="C18" t="n">
-        <v>5248.16430405395</v>
+        <v>5254.61868242081</v>
       </c>
       <c r="D18" t="n">
-        <v>4843.5256197704</v>
+        <v>4846.37972448164</v>
       </c>
       <c r="E18" t="n">
-        <v>7192.45088336371</v>
+        <v>7220.09828325669</v>
       </c>
       <c r="F18" t="n">
-        <v>7844.69209306884</v>
+        <v>7880.72247277469</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5011</v>
       </c>
       <c r="I18" t="n">
-        <v>1117.83500863166</v>
+        <v>1133.13562083452</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>7560.816519908</v>
+        <v>7574.81691971807</v>
       </c>
       <c r="C19" t="n">
-        <v>6406.61433170856</v>
+        <v>6409.89987995922</v>
       </c>
       <c r="D19" t="n">
-        <v>5881.35210724897</v>
+        <v>5880.40073215772</v>
       </c>
       <c r="E19" t="n">
-        <v>8973.07004367416</v>
+        <v>9002.52965231571</v>
       </c>
       <c r="F19" t="n">
-        <v>9848.12071591574</v>
+        <v>9888.32043947559</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>6408</v>
       </c>
       <c r="I19" t="n">
-        <v>1152.816519908</v>
+        <v>1166.81691971807</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>8661.54350084889</v>
+        <v>8689.14530923145</v>
       </c>
       <c r="C20" t="n">
-        <v>7277.23433203558</v>
+        <v>7289.76941595746</v>
       </c>
       <c r="D20" t="n">
-        <v>6652.10399971587</v>
+        <v>6658.66927717532</v>
       </c>
       <c r="E20" t="n">
-        <v>10373.3011268123</v>
+        <v>10422.6619673055</v>
       </c>
       <c r="F20" t="n">
-        <v>11442.8710335654</v>
+        <v>11507.3911020678</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>6982</v>
       </c>
       <c r="I20" t="n">
-        <v>1679.54350084889</v>
+        <v>1707.14530923145</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>8623.12451994847</v>
+        <v>8635.56954313567</v>
       </c>
       <c r="C21" t="n">
-        <v>7217.37214319382</v>
+        <v>7217.3673565282</v>
       </c>
       <c r="D21" t="n">
-        <v>6584.75774471459</v>
+        <v>6579.98203739407</v>
       </c>
       <c r="E21" t="n">
-        <v>10369.6583429034</v>
+        <v>10400.7198400988</v>
       </c>
       <c r="F21" t="n">
-        <v>11465.0922392586</v>
+        <v>11509.4110498805</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>5326</v>
       </c>
       <c r="I21" t="n">
-        <v>3297.12451994847</v>
+        <v>3309.56954313567</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7152.40244308255</v>
+        <v>7170.93219924452</v>
       </c>
       <c r="C22" t="n">
-        <v>6002.00630551588</v>
+        <v>6008.69344550979</v>
       </c>
       <c r="D22" t="n">
-        <v>5483.07987169604</v>
+        <v>5485.12093047568</v>
       </c>
       <c r="E22" t="n">
-        <v>8577.06121746353</v>
+        <v>8612.87496619473</v>
       </c>
       <c r="F22" t="n">
-        <v>9468.31101690931</v>
+        <v>9516.24773513623</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5159</v>
       </c>
       <c r="I22" t="n">
-        <v>1993.40244308255</v>
+        <v>2011.93219924452</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>5501.22881033873</v>
+        <v>5519.48149040685</v>
       </c>
       <c r="C23" t="n">
-        <v>4640.61823833733</v>
+        <v>4649.18203366347</v>
       </c>
       <c r="D23" t="n">
-        <v>4250.55767766481</v>
+        <v>4255.24937420665</v>
       </c>
       <c r="E23" t="n">
-        <v>6560.11395932222</v>
+        <v>6592.21646087097</v>
       </c>
       <c r="F23" t="n">
-        <v>7219.11936546727</v>
+        <v>7260.80045841213</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3745</v>
       </c>
       <c r="I23" t="n">
-        <v>1756.22881033873</v>
+        <v>1774.48149040685</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3973.37848797356</v>
+        <v>3981.20413581225</v>
       </c>
       <c r="C24" t="n">
-        <v>3376.0566307677</v>
+        <v>3378.03377361094</v>
       </c>
       <c r="D24" t="n">
-        <v>3103.5445995839</v>
+        <v>3103.19132402207</v>
       </c>
       <c r="E24" t="n">
-        <v>4701.76884168765</v>
+        <v>4717.95926500369</v>
       </c>
       <c r="F24" t="n">
-        <v>5151.87150131676</v>
+        <v>5173.83844853578</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>2775</v>
       </c>
       <c r="I24" t="n">
-        <v>1198.37848797356</v>
+        <v>1206.20413581225</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3379.2491972788</v>
+        <v>3389.67837843796</v>
       </c>
       <c r="C25" t="n">
-        <v>2877.00261263585</v>
+        <v>2881.80286431541</v>
       </c>
       <c r="D25" t="n">
-        <v>2647.44780688352</v>
+        <v>2649.96556953239</v>
       </c>
       <c r="E25" t="n">
-        <v>3990.18361329148</v>
+        <v>4008.51409126445</v>
       </c>
       <c r="F25" t="n">
-        <v>4366.96109481547</v>
+        <v>4390.68271929972</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2807</v>
       </c>
       <c r="I25" t="n">
-        <v>572.249197278801</v>
+        <v>582.678378437959</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2797.63928110823</v>
+        <v>2804.1019706725</v>
       </c>
       <c r="C26" t="n">
-        <v>2388.7989900407</v>
+        <v>2391.01198557996</v>
       </c>
       <c r="D26" t="n">
-        <v>2201.43884791529</v>
+        <v>2201.93368801043</v>
       </c>
       <c r="E26" t="n">
-        <v>3293.15949003005</v>
+        <v>3305.60008940805</v>
       </c>
       <c r="F26" t="n">
-        <v>3597.88199445597</v>
+        <v>3614.40389669798</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2169</v>
       </c>
       <c r="I26" t="n">
-        <v>628.639281108227</v>
+        <v>635.101970672497</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2681.36661862396</v>
+        <v>2688.10032686643</v>
       </c>
       <c r="C27" t="n">
-        <v>2286.07394042807</v>
+        <v>2288.58715240138</v>
       </c>
       <c r="D27" t="n">
-        <v>2105.17038189853</v>
+        <v>2105.97773189042</v>
       </c>
       <c r="E27" t="n">
-        <v>3161.36073047815</v>
+        <v>3174.03600544638</v>
       </c>
       <c r="F27" t="n">
-        <v>3456.97270090124</v>
+        <v>3473.70795121612</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>2043</v>
       </c>
       <c r="I27" t="n">
-        <v>638.366618623957</v>
+        <v>645.100326866426</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3333.97203804091</v>
+        <v>3338.91590735145</v>
       </c>
       <c r="C28" t="n">
-        <v>2814.84815535468</v>
+        <v>2814.92578083012</v>
       </c>
       <c r="D28" t="n">
-        <v>2579.37611938396</v>
+        <v>2577.55146645444</v>
       </c>
       <c r="E28" t="n">
-        <v>3972.00841080551</v>
+        <v>3984.06379060619</v>
       </c>
       <c r="F28" t="n">
-        <v>4368.75485652588</v>
+        <v>4385.79390775285</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2836</v>
       </c>
       <c r="I28" t="n">
-        <v>497.97203804091</v>
+        <v>502.915907351447</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3982.35596878109</v>
+        <v>3994.55979017633</v>
       </c>
       <c r="C29" t="n">
-        <v>3332.61941471145</v>
+        <v>3337.54864958447</v>
       </c>
       <c r="D29" t="n">
-        <v>3040.2681641522</v>
+        <v>3042.33963118381</v>
       </c>
       <c r="E29" t="n">
-        <v>4789.76020300783</v>
+        <v>4812.57730738192</v>
       </c>
       <c r="F29" t="n">
-        <v>5296.24739046974</v>
+        <v>5326.5124704952</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>2587</v>
       </c>
       <c r="I29" t="n">
-        <v>1395.35596878109</v>
+        <v>1407.55979017633</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5598.12175758612</v>
+        <v>5620.59856705691</v>
       </c>
       <c r="C30" t="n">
-        <v>4614.00803806971</v>
+        <v>4624.459529996</v>
       </c>
       <c r="D30" t="n">
-        <v>4177.28996823119</v>
+        <v>4183.09606238374</v>
       </c>
       <c r="E30" t="n">
-        <v>6844.44914732321</v>
+        <v>6884.87127736902</v>
       </c>
       <c r="F30" t="n">
-        <v>7638.21368726382</v>
+        <v>7691.45525070264</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>3520</v>
       </c>
       <c r="I30" t="n">
-        <v>2078.12175758612</v>
+        <v>2100.59856705691</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6879.92587443224</v>
+        <v>6903.63290111087</v>
       </c>
       <c r="C31" t="n">
-        <v>5608.40337639476</v>
+        <v>5617.49405023268</v>
       </c>
       <c r="D31" t="n">
-        <v>5049.76144082063</v>
+        <v>5053.35545151216</v>
       </c>
       <c r="E31" t="n">
-        <v>8512.54010266416</v>
+        <v>8558.7485420014</v>
       </c>
       <c r="F31" t="n">
-        <v>9563.85587714822</v>
+        <v>9626.49244554197</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>4708</v>
       </c>
       <c r="I31" t="n">
-        <v>2171.92587443224</v>
+        <v>2195.63290111087</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7861.51789030702</v>
+        <v>7899.26434945369</v>
       </c>
       <c r="C32" t="n">
-        <v>6354.31454348191</v>
+        <v>6372.36045824446</v>
       </c>
       <c r="D32" t="n">
-        <v>5697.22506705621</v>
+        <v>5707.85447073522</v>
       </c>
       <c r="E32" t="n">
-        <v>9817.45991773767</v>
+        <v>9885.60411785691</v>
       </c>
       <c r="F32" t="n">
-        <v>11087.8093941688</v>
+        <v>11178.2317654211</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>5055</v>
       </c>
       <c r="I32" t="n">
-        <v>2806.51789030702</v>
+        <v>2844.26434945369</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>7827.30654985925</v>
+        <v>7851.4631138489</v>
       </c>
       <c r="C33" t="n">
-        <v>6308.12950362276</v>
+        <v>6315.49698677216</v>
       </c>
       <c r="D33" t="n">
-        <v>5647.58324759926</v>
+        <v>5648.80232906765</v>
       </c>
       <c r="E33" t="n">
-        <v>9806.05232396453</v>
+        <v>9856.85743717008</v>
       </c>
       <c r="F33" t="n">
-        <v>11095.0234607498</v>
+        <v>11165.7054647306</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4505</v>
       </c>
       <c r="I33" t="n">
-        <v>3322.30654985925</v>
+        <v>3346.4631138489</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6514.92990657142</v>
+        <v>6542.00100090207</v>
       </c>
       <c r="C34" t="n">
-        <v>5274.46250302055</v>
+        <v>5286.18248894809</v>
       </c>
       <c r="D34" t="n">
-        <v>4732.86107610326</v>
+        <v>4738.82777955799</v>
       </c>
       <c r="E34" t="n">
-        <v>8121.44394592727</v>
+        <v>8172.29281395608</v>
       </c>
       <c r="F34" t="n">
-        <v>9163.13699651554</v>
+        <v>9231.44431989627</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>3134</v>
       </c>
       <c r="I34" t="n">
-        <v>3380.92990657142</v>
+        <v>3408.00100090207</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5034.39068891974</v>
+        <v>5058.51065511097</v>
       </c>
       <c r="C35" t="n">
-        <v>4106.486163449</v>
+        <v>4118.3408020395</v>
       </c>
       <c r="D35" t="n">
-        <v>3698.58366010792</v>
+        <v>3705.747340193</v>
       </c>
       <c r="E35" t="n">
-        <v>6224.88583688258</v>
+        <v>6267.56714881259</v>
       </c>
       <c r="F35" t="n">
-        <v>6991.02572804755</v>
+        <v>7047.11749332965</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2559</v>
       </c>
       <c r="I35" t="n">
-        <v>2475.39068891974</v>
+        <v>2499.51065511097</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3656.14505550355</v>
+        <v>3668.45751232906</v>
       </c>
       <c r="C36" t="n">
-        <v>3011.1995189502</v>
+        <v>3015.99016102968</v>
       </c>
       <c r="D36" t="n">
-        <v>2725.18503250298</v>
+        <v>2727.09420166301</v>
       </c>
       <c r="E36" t="n">
-        <v>4473.68520086907</v>
+        <v>4497.32077441041</v>
       </c>
       <c r="F36" t="n">
-        <v>4994.74599485409</v>
+        <v>5026.51476517182</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1975</v>
       </c>
       <c r="I36" t="n">
-        <v>1681.14505550355</v>
+        <v>1693.45751232906</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3117.53847602218</v>
+        <v>3131.32436261938</v>
       </c>
       <c r="C37" t="n">
-        <v>2576.42687540844</v>
+        <v>2583.18324844728</v>
       </c>
       <c r="D37" t="n">
-        <v>2335.70992076656</v>
+        <v>2339.72467205728</v>
       </c>
       <c r="E37" t="n">
-        <v>3800.52831000471</v>
+        <v>3824.69200981137</v>
       </c>
       <c r="F37" t="n">
-        <v>4234.34399234909</v>
+        <v>4265.86734391114</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1215</v>
       </c>
       <c r="I37" t="n">
-        <v>1902.53847602218</v>
+        <v>1916.32436261938</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2588.53977311647</v>
+        <v>2597.8685193579</v>
       </c>
       <c r="C38" t="n">
-        <v>2148.6684237835</v>
+        <v>2152.66463293003</v>
       </c>
       <c r="D38" t="n">
-        <v>1952.20518760038</v>
+        <v>1954.12212810646</v>
       </c>
       <c r="E38" t="n">
-        <v>3140.71160261609</v>
+        <v>3157.90260539285</v>
       </c>
       <c r="F38" t="n">
-        <v>3489.90194400589</v>
+        <v>3512.65778753102</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1924</v>
       </c>
       <c r="I38" t="n">
-        <v>664.539773116465</v>
+        <v>673.868519357899</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2482.55411587176</v>
+        <v>2491.9644857883</v>
       </c>
       <c r="C39" t="n">
-        <v>2059.04335441723</v>
+        <v>2063.21356886595</v>
       </c>
       <c r="D39" t="n">
-        <v>1870.02510198123</v>
+        <v>1872.15060276663</v>
       </c>
       <c r="E39" t="n">
-        <v>3014.7191432415</v>
+        <v>3031.85210109855</v>
       </c>
       <c r="F39" t="n">
-        <v>3351.52590303379</v>
+        <v>3374.12449972874</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>2346</v>
       </c>
       <c r="I39" t="n">
-        <v>136.554115871761</v>
+        <v>145.964485788295</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3076.42208553442</v>
+        <v>3085.15163526601</v>
       </c>
       <c r="C40" t="n">
-        <v>2525.43929395518</v>
+        <v>2528.0343033308</v>
       </c>
       <c r="D40" t="n">
-        <v>2281.82250252095</v>
+        <v>2282.09671225037</v>
       </c>
       <c r="E40" t="n">
-        <v>3777.72119438754</v>
+        <v>3795.81297993777</v>
       </c>
       <c r="F40" t="n">
-        <v>4226.16541645564</v>
+        <v>4251.04350124821</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>2530</v>
       </c>
       <c r="I40" t="n">
-        <v>546.422085534417</v>
+        <v>555.151635266012</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>3664.27101602726</v>
+        <v>3680.56666842854</v>
       </c>
       <c r="C41" t="n">
-        <v>2980.41815933383</v>
+        <v>2987.85037216995</v>
       </c>
       <c r="D41" t="n">
-        <v>2680.57498505275</v>
+        <v>2684.64476638051</v>
       </c>
       <c r="E41" t="n">
-        <v>4544.77388174862</v>
+        <v>4574.60808051627</v>
       </c>
       <c r="F41" t="n">
-        <v>5113.03925969008</v>
+        <v>5152.71797324582</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>2794</v>
       </c>
       <c r="I41" t="n">
-        <v>870.271016027256</v>
+        <v>886.566668428542</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5121.5065998311</v>
+        <v>5149.58498041394</v>
       </c>
       <c r="C42" t="n">
-        <v>4098.10020552988</v>
+        <v>4111.79868691401</v>
       </c>
       <c r="D42" t="n">
-        <v>3655.99759683761</v>
+        <v>3664.3377430406</v>
       </c>
       <c r="E42" t="n">
-        <v>6466.51687311349</v>
+        <v>6517.10049039955</v>
       </c>
       <c r="F42" t="n">
-        <v>7349.02506458453</v>
+        <v>7416.29206492875</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>3753</v>
       </c>
       <c r="I42" t="n">
-        <v>1368.5065998311</v>
+        <v>1396.58498041394</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6271.16773035376</v>
+        <v>6302.42563917004</v>
       </c>
       <c r="C43" t="n">
-        <v>4960.6356133762</v>
+        <v>4974.34455361187</v>
       </c>
       <c r="D43" t="n">
-        <v>4400.38244125441</v>
+        <v>4407.71587876767</v>
       </c>
       <c r="E43" t="n">
-        <v>8018.64091548088</v>
+        <v>8078.19474831042</v>
       </c>
       <c r="F43" t="n">
-        <v>9178.70214764931</v>
+        <v>9259.68106864524</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>4353</v>
       </c>
       <c r="I43" t="n">
-        <v>1918.16773035376</v>
+        <v>1949.42563917004</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>7148.38044288609</v>
+        <v>7193.83353108921</v>
       </c>
       <c r="C44" t="n">
-        <v>5605.85819079247</v>
+        <v>5628.2232233297</v>
       </c>
       <c r="D44" t="n">
-        <v>4951.58593291334</v>
+        <v>4965.56500157244</v>
       </c>
       <c r="E44" t="n">
-        <v>9227.73741857551</v>
+        <v>9310.55915455856</v>
       </c>
       <c r="F44" t="n">
-        <v>10620.360067811</v>
+        <v>10731.6153275561</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>4684</v>
       </c>
       <c r="I44" t="n">
-        <v>2464.38044288609</v>
+        <v>2509.83353108921</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>7117.84954037459</v>
+        <v>7151.09453639529</v>
       </c>
       <c r="C45" t="n">
-        <v>5568.43337859475</v>
+        <v>5581.57239465584</v>
       </c>
       <c r="D45" t="n">
-        <v>4912.67848366216</v>
+        <v>4918.68279995515</v>
       </c>
       <c r="E45" t="n">
-        <v>9212.88744560613</v>
+        <v>9279.45678747557</v>
       </c>
       <c r="F45" t="n">
-        <v>10619.4906812812</v>
+        <v>10711.792029919</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4626</v>
       </c>
       <c r="I45" t="n">
-        <v>2491.84954037459</v>
+        <v>2525.09453639529</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>5944.30639274222</v>
+        <v>5977.98510606824</v>
       </c>
       <c r="C46" t="n">
-        <v>4677.75736566939</v>
+        <v>4693.43783148278</v>
       </c>
       <c r="D46" t="n">
-        <v>4138.85131852381</v>
+        <v>4148.0016778376</v>
       </c>
       <c r="E46" t="n">
-        <v>7644.20965107626</v>
+        <v>7707.00931069921</v>
       </c>
       <c r="F46" t="n">
-        <v>8778.67913780946</v>
+        <v>8863.60903477052</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>3658</v>
       </c>
       <c r="I46" t="n">
-        <v>2286.30639274222</v>
+        <v>2319.98510606824</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4614.20352781862</v>
+        <v>4642.88220669978</v>
       </c>
       <c r="C47" t="n">
-        <v>3664.1280844492</v>
+        <v>3678.59845933489</v>
       </c>
       <c r="D47" t="n">
-        <v>3256.5364825357</v>
+        <v>3265.74290379204</v>
       </c>
       <c r="E47" t="n">
-        <v>5874.86694982238</v>
+        <v>5925.97811344329</v>
       </c>
       <c r="F47" t="n">
-        <v>6708.45985473637</v>
+        <v>6776.32528200792</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>3067</v>
       </c>
       <c r="I47" t="n">
-        <v>1547.20352781862</v>
+        <v>1575.88220669978</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3368.76639240618</v>
+        <v>3384.67230560569</v>
       </c>
       <c r="C48" t="n">
-        <v>2705.76659131963</v>
+        <v>2712.83549398784</v>
       </c>
       <c r="D48" t="n">
-        <v>2418.37534294096</v>
+        <v>2422.15412631587</v>
       </c>
       <c r="E48" t="n">
-        <v>4236.0039478323</v>
+        <v>4265.73151595277</v>
       </c>
       <c r="F48" t="n">
-        <v>4802.86426035725</v>
+        <v>4842.82294601697</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>1963</v>
       </c>
       <c r="I48" t="n">
-        <v>1405.76639240618</v>
+        <v>1421.67230560569</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2879.73021868868</v>
+        <v>2896.19245419072</v>
       </c>
       <c r="C49" t="n">
-        <v>2323.24143854829</v>
+        <v>2331.58684115786</v>
       </c>
       <c r="D49" t="n">
-        <v>2081.04704392233</v>
+        <v>2086.31650664324</v>
       </c>
       <c r="E49" t="n">
-        <v>3603.61306608475</v>
+        <v>3632.52472580731</v>
       </c>
       <c r="F49" t="n">
-        <v>4074.65843769101</v>
+        <v>4112.66589393299</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>1727</v>
       </c>
       <c r="I49" t="n">
-        <v>1152.73021868868</v>
+        <v>1169.19245419072</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Dysentery.xlsx
+++ b/outcome/appendix/forecast/Dysentery.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3278.56857879612</v>
+        <v>3275.5464018377</v>
       </c>
       <c r="C2" t="n">
-        <v>3094.12874245179</v>
+        <v>3091.36138141609</v>
       </c>
       <c r="D2" t="n">
-        <v>3001.5267879822</v>
+        <v>2998.88608615131</v>
       </c>
       <c r="E2" t="n">
-        <v>3476.32609630924</v>
+        <v>3473.02704056821</v>
       </c>
       <c r="F2" t="n">
-        <v>3586.78616665863</v>
+        <v>3583.3308493101</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>3309</v>
       </c>
       <c r="I2" t="n">
-        <v>-30.4314212038826</v>
+        <v>-33.4535981622989</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3138.80447783385</v>
+        <v>3138.02766679129</v>
       </c>
       <c r="C3" t="n">
-        <v>2940.11439439071</v>
+        <v>2939.68453429903</v>
       </c>
       <c r="D3" t="n">
-        <v>2841.03796061813</v>
+        <v>2840.77329562587</v>
       </c>
       <c r="E3" t="n">
-        <v>3353.784680558</v>
+        <v>3352.60988924869</v>
       </c>
       <c r="F3" t="n">
-        <v>3474.71396422635</v>
+        <v>3473.30540838025</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1912</v>
       </c>
       <c r="I3" t="n">
-        <v>1226.80447783385</v>
+        <v>1226.02766679129</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3925.6475720918</v>
+        <v>3926.50618136131</v>
       </c>
       <c r="C4" t="n">
-        <v>3639.31378080902</v>
+        <v>3640.7035187341</v>
       </c>
       <c r="D4" t="n">
-        <v>3497.87632384046</v>
+        <v>3499.50904405594</v>
       </c>
       <c r="E4" t="n">
-        <v>4239.3748023643</v>
+        <v>4239.59410771681</v>
       </c>
       <c r="F4" t="n">
-        <v>4417.58369825758</v>
+        <v>4417.41443030449</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2892</v>
       </c>
       <c r="I4" t="n">
-        <v>1033.6475720918</v>
+        <v>1034.50618136131</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4724.40642789172</v>
+        <v>4724.25738338316</v>
       </c>
       <c r="C5" t="n">
-        <v>4337.17892802151</v>
+        <v>4338.03642345829</v>
       </c>
       <c r="D5" t="n">
-        <v>4147.60449083009</v>
+        <v>4148.91711223531</v>
       </c>
       <c r="E5" t="n">
-        <v>5153.76274655936</v>
+        <v>5152.38361598703</v>
       </c>
       <c r="F5" t="n">
-        <v>5399.92814829935</v>
+        <v>5397.79264750069</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>3695</v>
       </c>
       <c r="I5" t="n">
-        <v>1029.40642789172</v>
+        <v>1029.25738338316</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6727.14611812393</v>
+        <v>6716.97724928059</v>
       </c>
       <c r="C6" t="n">
-        <v>6095.86115744865</v>
+        <v>6088.62484462723</v>
       </c>
       <c r="D6" t="n">
-        <v>5790.4556124302</v>
+        <v>5784.54986224695</v>
       </c>
       <c r="E6" t="n">
-        <v>7438.32819529718</v>
+        <v>7424.58021520766</v>
       </c>
       <c r="F6" t="n">
-        <v>7851.17279336424</v>
+        <v>7835.22177649771</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5664</v>
       </c>
       <c r="I6" t="n">
-        <v>1063.14611812393</v>
+        <v>1052.97724928059</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>8325.65033663998</v>
+        <v>8311.55148626336</v>
       </c>
       <c r="C7" t="n">
-        <v>7462.55079491466</v>
+        <v>7452.84792578717</v>
       </c>
       <c r="D7" t="n">
-        <v>7049.12927271901</v>
+        <v>7041.3862170223</v>
       </c>
       <c r="E7" t="n">
-        <v>9311.04451703843</v>
+        <v>9291.45923380185</v>
       </c>
       <c r="F7" t="n">
-        <v>9889.08438478762</v>
+        <v>9866.06512415427</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>7775</v>
       </c>
       <c r="I7" t="n">
-        <v>550.650336639979</v>
+        <v>536.551486263357</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>9575.48929451037</v>
+        <v>9552.37571540342</v>
       </c>
       <c r="C8" t="n">
-        <v>8501.53877528923</v>
+        <v>8485.0046176625</v>
       </c>
       <c r="D8" t="n">
-        <v>7991.56437515282</v>
+        <v>7977.93904859129</v>
       </c>
       <c r="E8" t="n">
-        <v>10816.0005507788</v>
+        <v>10784.5805776644</v>
       </c>
       <c r="F8" t="n">
-        <v>11550.3973322737</v>
+        <v>11513.7303821579</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>7270</v>
       </c>
       <c r="I8" t="n">
-        <v>2305.48929451037</v>
+        <v>2282.37571540342</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>9515.30998976675</v>
+        <v>9503.33624806942</v>
       </c>
       <c r="C9" t="n">
-        <v>8397.6757827724</v>
+        <v>8391.19918869918</v>
       </c>
       <c r="D9" t="n">
-        <v>7869.84604633112</v>
+        <v>7865.73410145504</v>
       </c>
       <c r="E9" t="n">
-        <v>10815.807192603</v>
+        <v>10796.6666715903</v>
       </c>
       <c r="F9" t="n">
-        <v>11590.1863570793</v>
+        <v>11566.4165707017</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>7270</v>
       </c>
       <c r="I9" t="n">
-        <v>2245.30998976675</v>
+        <v>2233.33624806942</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>7873.64966794672</v>
+        <v>7851.58021356603</v>
       </c>
       <c r="C10" t="n">
-        <v>6941.20152402909</v>
+        <v>6925.54941684128</v>
       </c>
       <c r="D10" t="n">
-        <v>6501.2702863342</v>
+        <v>6488.42979976486</v>
       </c>
       <c r="E10" t="n">
-        <v>8960.12483309752</v>
+        <v>8929.85733727916</v>
       </c>
       <c r="F10" t="n">
-        <v>9607.75238663716</v>
+        <v>9572.25929589852</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6206</v>
       </c>
       <c r="I10" t="n">
-        <v>1667.64966794672</v>
+        <v>1645.58021356603</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6031.66202642148</v>
+        <v>6009.14827128455</v>
       </c>
       <c r="C11" t="n">
-        <v>5324.10356363092</v>
+        <v>5307.33225018424</v>
       </c>
       <c r="D11" t="n">
-        <v>4989.88811667938</v>
+        <v>4975.65602588696</v>
       </c>
       <c r="E11" t="n">
-        <v>6854.80950090518</v>
+        <v>6825.03939887569</v>
       </c>
       <c r="F11" t="n">
-        <v>7344.86751768744</v>
+        <v>7310.50705261944</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4793</v>
       </c>
       <c r="I11" t="n">
-        <v>1238.66202642148</v>
+        <v>1216.14827128455</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>4326.41387463671</v>
+        <v>4318.45937760411</v>
       </c>
       <c r="C12" t="n">
-        <v>3831.22424952722</v>
+        <v>3826.25745136565</v>
       </c>
       <c r="D12" t="n">
-        <v>3596.63134111182</v>
+        <v>3592.96845902599</v>
       </c>
       <c r="E12" t="n">
-        <v>4900.2168272782</v>
+        <v>4888.43253950076</v>
       </c>
       <c r="F12" t="n">
-        <v>5240.76206932353</v>
+        <v>5226.53283462481</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>3568</v>
       </c>
       <c r="I12" t="n">
-        <v>758.413874636707</v>
+        <v>750.459377604106</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3673.97021294279</v>
+        <v>3663.83416016198</v>
       </c>
       <c r="C13" t="n">
-        <v>3251.89178638188</v>
+        <v>3244.80802860811</v>
       </c>
       <c r="D13" t="n">
-        <v>3052.02156169212</v>
+        <v>3046.28215025448</v>
       </c>
       <c r="E13" t="n">
-        <v>4163.34121872564</v>
+        <v>4149.33261198479</v>
       </c>
       <c r="F13" t="n">
-        <v>4453.91078081676</v>
+        <v>4437.44669521743</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>3272</v>
       </c>
       <c r="I13" t="n">
-        <v>401.970212942795</v>
+        <v>391.834160161978</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>3030.24372779337</v>
+        <v>3019.97451200133</v>
       </c>
       <c r="C14" t="n">
-        <v>2683.46300762838</v>
+        <v>2676.00082107226</v>
       </c>
       <c r="D14" t="n">
-        <v>2519.17300932132</v>
+        <v>2512.95451829363</v>
       </c>
       <c r="E14" t="n">
-        <v>3432.06126628376</v>
+        <v>3418.2553930384</v>
       </c>
       <c r="F14" t="n">
-        <v>3670.52772922964</v>
+        <v>3654.49010541686</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>2633</v>
       </c>
       <c r="I14" t="n">
-        <v>397.243727793369</v>
+        <v>386.974512001332</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2903.00510483365</v>
+        <v>2895.15187011875</v>
       </c>
       <c r="C15" t="n">
-        <v>2563.54778158837</v>
+        <v>2558.19220515204</v>
       </c>
       <c r="D15" t="n">
-        <v>2403.13960214189</v>
+        <v>2398.87936309645</v>
       </c>
       <c r="E15" t="n">
-        <v>3297.70014269313</v>
+        <v>3286.66088100202</v>
       </c>
       <c r="F15" t="n">
-        <v>3532.57869134221</v>
+        <v>3519.51117734745</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2623</v>
       </c>
       <c r="I15" t="n">
-        <v>280.005104833646</v>
+        <v>272.151870118748</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3618.07771701068</v>
+        <v>3609.53514348208</v>
       </c>
       <c r="C16" t="n">
-        <v>3165.36623000201</v>
+        <v>3159.96081060082</v>
       </c>
       <c r="D16" t="n">
-        <v>2953.25092342904</v>
+        <v>2949.19479544067</v>
       </c>
       <c r="E16" t="n">
-        <v>4150.52905770993</v>
+        <v>4137.88724484876</v>
       </c>
       <c r="F16" t="n">
-        <v>4470.2644092754</v>
+        <v>4454.96668491412</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>3488</v>
       </c>
       <c r="I16" t="n">
-        <v>130.077717010676</v>
+        <v>121.535143482083</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4341.16806497634</v>
+        <v>4329.43198779621</v>
       </c>
       <c r="C17" t="n">
-        <v>3765.00922215466</v>
+        <v>3757.49325844039</v>
       </c>
       <c r="D17" t="n">
-        <v>3497.19020060318</v>
+        <v>3491.46954672171</v>
       </c>
       <c r="E17" t="n">
-        <v>5026.13546071474</v>
+        <v>5008.80552473591</v>
       </c>
       <c r="F17" t="n">
-        <v>5440.96633136247</v>
+        <v>5419.97202194737</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>3945</v>
       </c>
       <c r="I17" t="n">
-        <v>396.168064976338</v>
+        <v>384.431987796206</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6144.13562083452</v>
+        <v>6117.43797216066</v>
       </c>
       <c r="C18" t="n">
-        <v>5254.61868242081</v>
+        <v>5236.11706167097</v>
       </c>
       <c r="D18" t="n">
-        <v>4846.37972448164</v>
+        <v>4831.34006184602</v>
       </c>
       <c r="E18" t="n">
-        <v>7220.09828325669</v>
+        <v>7182.41263821888</v>
       </c>
       <c r="F18" t="n">
-        <v>7880.72247277469</v>
+        <v>7835.76646054551</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5011</v>
       </c>
       <c r="I18" t="n">
-        <v>1133.13562083452</v>
+        <v>1106.43797216066</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>7574.81691971807</v>
+        <v>7539.64198025213</v>
       </c>
       <c r="C19" t="n">
-        <v>6409.89987995922</v>
+        <v>6385.85749408224</v>
       </c>
       <c r="D19" t="n">
-        <v>5880.40073215772</v>
+        <v>5860.99535307386</v>
       </c>
       <c r="E19" t="n">
-        <v>9002.52965231571</v>
+        <v>8952.15437667214</v>
       </c>
       <c r="F19" t="n">
-        <v>9888.32043947559</v>
+        <v>9827.74538375209</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>6408</v>
       </c>
       <c r="I19" t="n">
-        <v>1166.81691971807</v>
+        <v>1131.64198025213</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>8689.14530923145</v>
+        <v>8641.96972663361</v>
       </c>
       <c r="C20" t="n">
-        <v>7289.76941595746</v>
+        <v>7257.25905718757</v>
       </c>
       <c r="D20" t="n">
-        <v>6658.66927717532</v>
+        <v>6632.22349866727</v>
       </c>
       <c r="E20" t="n">
-        <v>10422.6619673055</v>
+        <v>10355.2570985645</v>
       </c>
       <c r="F20" t="n">
-        <v>11507.3911020678</v>
+        <v>11426.2980903483</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>6982</v>
       </c>
       <c r="I20" t="n">
-        <v>1707.14530923145</v>
+        <v>1659.96972663361</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>8635.56954313567</v>
+        <v>8598.47001555592</v>
       </c>
       <c r="C21" t="n">
-        <v>7217.3673565282</v>
+        <v>7193.27785923866</v>
       </c>
       <c r="D21" t="n">
-        <v>6579.98203739407</v>
+        <v>6561.1915392801</v>
       </c>
       <c r="E21" t="n">
-        <v>10400.7198400988</v>
+        <v>10345.3502090615</v>
       </c>
       <c r="F21" t="n">
-        <v>11509.4110498805</v>
+        <v>11441.5236009665</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>5326</v>
       </c>
       <c r="I21" t="n">
-        <v>3309.56954313567</v>
+        <v>3272.47001555592</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7170.93219924452</v>
+        <v>7130.0783233336</v>
       </c>
       <c r="C22" t="n">
-        <v>6008.69344550979</v>
+        <v>5980.464715301</v>
       </c>
       <c r="D22" t="n">
-        <v>5485.12093047568</v>
+        <v>5462.11205313422</v>
       </c>
       <c r="E22" t="n">
-        <v>8612.87496619473</v>
+        <v>8554.59673290279</v>
       </c>
       <c r="F22" t="n">
-        <v>9516.24773513623</v>
+        <v>9446.17258382186</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5159</v>
       </c>
       <c r="I22" t="n">
-        <v>2011.93219924452</v>
+        <v>1971.0783233336</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>5519.48149040685</v>
+        <v>5483.82386654924</v>
       </c>
       <c r="C23" t="n">
-        <v>4649.18203366347</v>
+        <v>4623.81512588868</v>
       </c>
       <c r="D23" t="n">
-        <v>4255.24937420665</v>
+        <v>4234.18921902573</v>
       </c>
       <c r="E23" t="n">
-        <v>6592.21646087097</v>
+        <v>6542.56853314004</v>
       </c>
       <c r="F23" t="n">
-        <v>7260.80045841213</v>
+        <v>7201.78421755338</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3745</v>
       </c>
       <c r="I23" t="n">
-        <v>1774.48149040685</v>
+        <v>1738.82386654924</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3981.20413581225</v>
+        <v>3963.57082742756</v>
       </c>
       <c r="C24" t="n">
-        <v>3378.03377361094</v>
+        <v>3366.15450583203</v>
       </c>
       <c r="D24" t="n">
-        <v>3103.19132402207</v>
+        <v>3093.71413960135</v>
       </c>
       <c r="E24" t="n">
-        <v>4717.95926500369</v>
+        <v>4692.49439329104</v>
       </c>
       <c r="F24" t="n">
-        <v>5173.83844853578</v>
+        <v>5143.13212361062</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>2775</v>
       </c>
       <c r="I24" t="n">
-        <v>1206.20413581225</v>
+        <v>1188.57082742756</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3389.67837843796</v>
+        <v>3371.88652307165</v>
       </c>
       <c r="C25" t="n">
-        <v>2881.80286431541</v>
+        <v>2869.37614937089</v>
       </c>
       <c r="D25" t="n">
-        <v>2649.96556953239</v>
+        <v>2639.79884836974</v>
       </c>
       <c r="E25" t="n">
-        <v>4008.51409126445</v>
+        <v>3983.49731689227</v>
       </c>
       <c r="F25" t="n">
-        <v>4390.68271929972</v>
+        <v>4360.86633883888</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2807</v>
       </c>
       <c r="I25" t="n">
-        <v>582.678378437959</v>
+        <v>564.886523071649</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2804.1019706725</v>
+        <v>2787.91535215456</v>
       </c>
       <c r="C26" t="n">
-        <v>2391.01198557996</v>
+        <v>2379.47635000551</v>
       </c>
       <c r="D26" t="n">
-        <v>2201.93368801043</v>
+        <v>2192.37225397237</v>
       </c>
       <c r="E26" t="n">
-        <v>3305.60008940805</v>
+        <v>3283.20888457984</v>
       </c>
       <c r="F26" t="n">
-        <v>3614.40389669798</v>
+        <v>3587.91893369813</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2169</v>
       </c>
       <c r="I26" t="n">
-        <v>635.101970672497</v>
+        <v>618.91535215456</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2688.10032686643</v>
+        <v>2674.44400757287</v>
       </c>
       <c r="C27" t="n">
-        <v>2288.58715240138</v>
+        <v>2279.11581690044</v>
       </c>
       <c r="D27" t="n">
-        <v>2105.97773189042</v>
+        <v>2098.27141280084</v>
       </c>
       <c r="E27" t="n">
-        <v>3174.03600544638</v>
+        <v>3154.75365622883</v>
       </c>
       <c r="F27" t="n">
-        <v>3473.70795121612</v>
+        <v>3450.69336311486</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>2043</v>
       </c>
       <c r="I27" t="n">
-        <v>645.100326866426</v>
+        <v>631.444007572868</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3338.91590735145</v>
+        <v>3322.71951864946</v>
       </c>
       <c r="C28" t="n">
-        <v>2814.92578083012</v>
+        <v>2804.03983310327</v>
       </c>
       <c r="D28" t="n">
-        <v>2577.55146645444</v>
+        <v>2568.86818046774</v>
       </c>
       <c r="E28" t="n">
-        <v>3984.06379060619</v>
+        <v>3960.57573661483</v>
       </c>
       <c r="F28" t="n">
-        <v>4385.79390775285</v>
+        <v>4357.3914616288</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2836</v>
       </c>
       <c r="I28" t="n">
-        <v>502.915907351447</v>
+        <v>486.71951864946</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3994.55979017633</v>
+        <v>3973.47242816243</v>
       </c>
       <c r="C29" t="n">
-        <v>3337.54864958447</v>
+        <v>3323.41732733163</v>
       </c>
       <c r="D29" t="n">
-        <v>3042.33963118381</v>
+        <v>3031.06327154961</v>
       </c>
       <c r="E29" t="n">
-        <v>4812.57730738192</v>
+        <v>4781.80352088617</v>
       </c>
       <c r="F29" t="n">
-        <v>5326.5124704952</v>
+        <v>5289.1382283308</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>2587</v>
       </c>
       <c r="I29" t="n">
-        <v>1407.55979017633</v>
+        <v>1386.47242816243</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5620.59856705691</v>
+        <v>5580.85961533424</v>
       </c>
       <c r="C30" t="n">
-        <v>4624.459529996</v>
+        <v>4597.27100178575</v>
       </c>
       <c r="D30" t="n">
-        <v>4183.09606238374</v>
+        <v>4161.00154910751</v>
       </c>
       <c r="E30" t="n">
-        <v>6884.87127736902</v>
+        <v>6827.36720762838</v>
       </c>
       <c r="F30" t="n">
-        <v>7691.45525070264</v>
+        <v>7621.67814971226</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>3520</v>
       </c>
       <c r="I30" t="n">
-        <v>2100.59856705691</v>
+        <v>2060.85961533424</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6903.63290111087</v>
+        <v>6852.018110191</v>
       </c>
       <c r="C31" t="n">
-        <v>5617.49405023268</v>
+        <v>5582.64051510158</v>
       </c>
       <c r="D31" t="n">
-        <v>5053.35545151216</v>
+        <v>5025.21348852665</v>
       </c>
       <c r="E31" t="n">
-        <v>8558.7485420014</v>
+        <v>8482.97572849915</v>
       </c>
       <c r="F31" t="n">
-        <v>9626.49244554197</v>
+        <v>9533.79290674435</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>4708</v>
       </c>
       <c r="I31" t="n">
-        <v>2195.63290111087</v>
+        <v>2144.018110191</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7899.26434945369</v>
+        <v>7833.52963488616</v>
       </c>
       <c r="C32" t="n">
-        <v>6372.36045824446</v>
+        <v>6327.99325599283</v>
       </c>
       <c r="D32" t="n">
-        <v>5707.85447073522</v>
+        <v>5671.97812723647</v>
       </c>
       <c r="E32" t="n">
-        <v>9885.60411785691</v>
+        <v>9788.73723464961</v>
       </c>
       <c r="F32" t="n">
-        <v>11178.2317654211</v>
+        <v>11059.3574163769</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>5055</v>
       </c>
       <c r="I32" t="n">
-        <v>2844.26434945369</v>
+        <v>2778.52963488616</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>7851.4631138489</v>
+        <v>7794.85413342671</v>
       </c>
       <c r="C33" t="n">
-        <v>6315.49698677216</v>
+        <v>6278.39557736498</v>
       </c>
       <c r="D33" t="n">
-        <v>5648.80232906765</v>
+        <v>5619.37191321816</v>
       </c>
       <c r="E33" t="n">
-        <v>9856.85743717008</v>
+        <v>9771.46900831002</v>
       </c>
       <c r="F33" t="n">
-        <v>11165.7054647306</v>
+        <v>11059.7926025624</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4505</v>
       </c>
       <c r="I33" t="n">
-        <v>3346.4631138489</v>
+        <v>3289.85413342671</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6542.00100090207</v>
+        <v>6486.54219039795</v>
       </c>
       <c r="C34" t="n">
-        <v>5286.18248894809</v>
+        <v>5248.58113929489</v>
       </c>
       <c r="D34" t="n">
-        <v>4738.82777955799</v>
+        <v>4708.34415864506</v>
       </c>
       <c r="E34" t="n">
-        <v>8172.29281395608</v>
+        <v>8090.91633856146</v>
       </c>
       <c r="F34" t="n">
-        <v>9231.44431989627</v>
+        <v>9131.7994481628</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>3134</v>
       </c>
       <c r="I34" t="n">
-        <v>3408.00100090207</v>
+        <v>3352.54219039795</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5058.51065511097</v>
+        <v>5012.55095166505</v>
       </c>
       <c r="C35" t="n">
-        <v>4118.3408020395</v>
+        <v>4086.47905856322</v>
       </c>
       <c r="D35" t="n">
-        <v>3705.747340193</v>
+        <v>3679.57952692312</v>
       </c>
       <c r="E35" t="n">
-        <v>6267.56714881259</v>
+        <v>6201.48830154843</v>
       </c>
       <c r="F35" t="n">
-        <v>7047.11749332965</v>
+        <v>6967.03616151758</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2559</v>
       </c>
       <c r="I35" t="n">
-        <v>2499.51065511097</v>
+        <v>2453.55095166505</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3668.45751232906</v>
+        <v>3643.04318245292</v>
       </c>
       <c r="C36" t="n">
-        <v>3015.99016102968</v>
+        <v>2998.77952769779</v>
       </c>
       <c r="D36" t="n">
-        <v>2727.09420166301</v>
+        <v>2713.20735979881</v>
       </c>
       <c r="E36" t="n">
-        <v>4497.32077441041</v>
+        <v>4460.26851251212</v>
       </c>
       <c r="F36" t="n">
-        <v>5026.51476517182</v>
+        <v>4981.40955517082</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1975</v>
       </c>
       <c r="I36" t="n">
-        <v>1693.45751232906</v>
+        <v>1668.04318245292</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3131.32436261938</v>
+        <v>3107.36060198067</v>
       </c>
       <c r="C37" t="n">
-        <v>2583.18324844728</v>
+        <v>2566.60824670326</v>
       </c>
       <c r="D37" t="n">
-        <v>2339.72467205728</v>
+        <v>2326.16982194036</v>
       </c>
       <c r="E37" t="n">
-        <v>3824.69200981137</v>
+        <v>3790.35939830673</v>
       </c>
       <c r="F37" t="n">
-        <v>4265.86734391114</v>
+        <v>4224.41612007045</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1215</v>
       </c>
       <c r="I37" t="n">
-        <v>1916.32436261938</v>
+        <v>1892.36060198067</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2597.8685193579</v>
+        <v>2576.88693314499</v>
       </c>
       <c r="C38" t="n">
-        <v>2152.66463293003</v>
+        <v>2137.94012936186</v>
       </c>
       <c r="D38" t="n">
-        <v>1954.12212810646</v>
+        <v>1941.97665900097</v>
       </c>
       <c r="E38" t="n">
-        <v>3157.90260539285</v>
+        <v>3128.23279008184</v>
       </c>
       <c r="F38" t="n">
-        <v>3512.65778753102</v>
+        <v>3477.0701666364</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1924</v>
       </c>
       <c r="I38" t="n">
-        <v>673.868519357899</v>
+        <v>652.886933144992</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2491.9644857883</v>
+        <v>2473.58227867295</v>
       </c>
       <c r="C39" t="n">
-        <v>2063.21356886595</v>
+        <v>2050.51512426427</v>
       </c>
       <c r="D39" t="n">
-        <v>1872.15060276663</v>
+        <v>1861.78465267489</v>
       </c>
       <c r="E39" t="n">
-        <v>3031.85210109855</v>
+        <v>3005.53660076504</v>
       </c>
       <c r="F39" t="n">
-        <v>3374.12449972874</v>
+        <v>3342.38568236368</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>2346</v>
       </c>
       <c r="I39" t="n">
-        <v>145.964485788295</v>
+        <v>127.582278672952</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3085.15163526601</v>
+        <v>3062.76931757573</v>
       </c>
       <c r="C40" t="n">
-        <v>2528.0343033308</v>
+        <v>2512.90752424135</v>
       </c>
       <c r="D40" t="n">
-        <v>2282.09671225037</v>
+        <v>2269.90155168881</v>
       </c>
       <c r="E40" t="n">
-        <v>3795.81297993777</v>
+        <v>3763.09753719814</v>
       </c>
       <c r="F40" t="n">
-        <v>4251.04350124821</v>
+        <v>4211.15492769281</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>2530</v>
       </c>
       <c r="I40" t="n">
-        <v>555.151635266012</v>
+        <v>532.769317575726</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>3680.56666842854</v>
+        <v>3651.99360636947</v>
       </c>
       <c r="C41" t="n">
-        <v>2987.85037216995</v>
+        <v>2968.66490457869</v>
       </c>
       <c r="D41" t="n">
-        <v>2684.64476638051</v>
+        <v>2669.21227419401</v>
       </c>
       <c r="E41" t="n">
-        <v>4574.60808051627</v>
+        <v>4532.47224724391</v>
       </c>
       <c r="F41" t="n">
-        <v>5152.71797324582</v>
+        <v>5101.05980619174</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>2794</v>
       </c>
       <c r="I41" t="n">
-        <v>886.566668428542</v>
+        <v>857.99360636947</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5149.58498041394</v>
+        <v>5099.67202680849</v>
       </c>
       <c r="C42" t="n">
-        <v>4111.79868691401</v>
+        <v>4078.17446574345</v>
       </c>
       <c r="D42" t="n">
-        <v>3664.3377430406</v>
+        <v>3637.13628048615</v>
       </c>
       <c r="E42" t="n">
-        <v>6517.10049039955</v>
+        <v>6443.18388676083</v>
       </c>
       <c r="F42" t="n">
-        <v>7416.29206492875</v>
+        <v>7325.24432775693</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>3753</v>
       </c>
       <c r="I42" t="n">
-        <v>1396.58498041394</v>
+        <v>1346.67202680849</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6302.42563917004</v>
+        <v>6238.14998982231</v>
       </c>
       <c r="C43" t="n">
-        <v>4974.34455361187</v>
+        <v>4931.62109407219</v>
       </c>
       <c r="D43" t="n">
-        <v>4407.71587876767</v>
+        <v>4373.37582413892</v>
       </c>
       <c r="E43" t="n">
-        <v>8078.19474831042</v>
+        <v>7981.56985927054</v>
       </c>
       <c r="F43" t="n">
-        <v>9259.68106864524</v>
+        <v>9139.63106036524</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>4353</v>
       </c>
       <c r="I43" t="n">
-        <v>1949.42563917004</v>
+        <v>1885.14998982231</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>7193.83353108921</v>
+        <v>7113.99499988133</v>
       </c>
       <c r="C44" t="n">
-        <v>5628.2232233297</v>
+        <v>5575.37345932165</v>
       </c>
       <c r="D44" t="n">
-        <v>4965.56500157244</v>
+        <v>4923.1282919477</v>
       </c>
       <c r="E44" t="n">
-        <v>9310.55915455856</v>
+        <v>9189.74222939015</v>
       </c>
       <c r="F44" t="n">
-        <v>10731.6153275561</v>
+        <v>10580.8435226</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>4684</v>
       </c>
       <c r="I44" t="n">
-        <v>2509.83353108921</v>
+        <v>2429.99499988133</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>7151.09453639529</v>
+        <v>7079.53175857557</v>
       </c>
       <c r="C45" t="n">
-        <v>5581.57239465584</v>
+        <v>5535.07204628827</v>
       </c>
       <c r="D45" t="n">
-        <v>4918.68279995515</v>
+        <v>4881.77627860782</v>
       </c>
       <c r="E45" t="n">
-        <v>9279.45678747557</v>
+        <v>9169.476451615</v>
       </c>
       <c r="F45" t="n">
-        <v>10711.792029919</v>
+        <v>10573.5373541271</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4626</v>
       </c>
       <c r="I45" t="n">
-        <v>2525.09453639529</v>
+        <v>2453.53175857557</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>5977.98510606824</v>
+        <v>5911.3305562442</v>
       </c>
       <c r="C46" t="n">
-        <v>4693.43783148278</v>
+        <v>4649.05829628152</v>
       </c>
       <c r="D46" t="n">
-        <v>4148.0016778376</v>
+        <v>4112.25886700842</v>
       </c>
       <c r="E46" t="n">
-        <v>7707.00931069921</v>
+        <v>7606.75243529704</v>
       </c>
       <c r="F46" t="n">
-        <v>8863.60903477052</v>
+        <v>8738.91246824695</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>3658</v>
       </c>
       <c r="I46" t="n">
-        <v>2319.98510606824</v>
+        <v>2253.3305562442</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4642.88220669978</v>
+        <v>4588.95982561982</v>
       </c>
       <c r="C47" t="n">
-        <v>3678.59845933489</v>
+        <v>3641.98748364327</v>
       </c>
       <c r="D47" t="n">
-        <v>3265.74290379204</v>
+        <v>3235.93779771124</v>
       </c>
       <c r="E47" t="n">
-        <v>5925.97811344329</v>
+        <v>5846.40973245863</v>
       </c>
       <c r="F47" t="n">
-        <v>6776.32528200792</v>
+        <v>6678.36148345405</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>3067</v>
       </c>
       <c r="I47" t="n">
-        <v>1575.88220669978</v>
+        <v>1521.95982561982</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3384.67230560569</v>
+        <v>3353.06226718081</v>
       </c>
       <c r="C48" t="n">
-        <v>2712.83549398784</v>
+        <v>2691.57945418454</v>
       </c>
       <c r="D48" t="n">
-        <v>2422.15412631587</v>
+        <v>2404.99653272691</v>
       </c>
       <c r="E48" t="n">
-        <v>4265.73151595277</v>
+        <v>4218.94479983201</v>
       </c>
       <c r="F48" t="n">
-        <v>4842.82294601697</v>
+        <v>4785.25133409329</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>1963</v>
       </c>
       <c r="I48" t="n">
-        <v>1421.67230560569</v>
+        <v>1390.06226718081</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2896.19245419072</v>
+        <v>2867.30210141958</v>
       </c>
       <c r="C49" t="n">
-        <v>2331.58684115786</v>
+        <v>2311.85153258884</v>
       </c>
       <c r="D49" t="n">
-        <v>2086.31650664324</v>
+        <v>2070.23698295461</v>
       </c>
       <c r="E49" t="n">
-        <v>3632.52472580731</v>
+        <v>3590.36298879044</v>
       </c>
       <c r="F49" t="n">
-        <v>4112.66589393299</v>
+        <v>4061.15073585996</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>1727</v>
       </c>
       <c r="I49" t="n">
-        <v>1169.19245419072</v>
+        <v>1140.30210141958</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
